--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H100_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5513698630136986</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4318181818181818</v>
-      </c>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.8655913978494624</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1266666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6736401673640168</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5119047619047619</v>
+        <v>0.5059523809523809</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06376111925357371</v>
+        <v>0.1307860662691446</v>
       </c>
       <c r="J2" t="n">
-        <v>751.6343582014066</v>
+        <v>1668.732371489563</v>
       </c>
       <c r="K2" t="n">
-        <v>797095.4490174846</v>
+        <v>3331128.928992599</v>
       </c>
       <c r="L2" t="n">
-        <v>892.8020211768589</v>
+        <v>1825.138057515814</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8531047899175358</v>
+        <v>0.3861125609996948</v>
       </c>
     </row>
   </sheetData>
